--- a/build2.7_260202/data_2005.xlsx
+++ b/build2.7_260202/data_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0a89b0b6314c61c/MAFF_2025/workspace simul/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{08C183AB-B877-49F2-9868-89FF2E1BA8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D38EFBEF-6F9D-4E9E-8999-C8BCE703DADC}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{08C183AB-B877-49F2-9868-89FF2E1BA8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24633E5A-40BA-475D-B31C-78522E75260B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="885" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="19" r:id="rId1"/>
@@ -1099,7 +1099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1255,9 +1255,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3049,8 +3046,8 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3065,7 +3062,7 @@
       <c r="B1" s="37">
         <v>30.1</v>
       </c>
-      <c r="C1" s="55"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -3074,7 +3071,7 @@
       <c r="B2" s="37">
         <v>5.6</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -3083,7 +3080,7 @@
       <c r="B3" s="37">
         <v>5.6</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3" ht="17.5" customHeight="1">
       <c r="A4" t="s">
@@ -3092,7 +3089,7 @@
       <c r="B4" s="37">
         <v>5.6</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="37"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
@@ -3101,7 +3098,7 @@
       <c r="B5" s="37">
         <v>5.6</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="37"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
@@ -3113,15 +3110,16 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B7" s="37">
         <v>5.6</v>
       </c>
+      <c r="C7" s="37"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B8" s="37">
         <v>5.6</v>
@@ -3129,7 +3127,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B9" s="37">
         <v>5.6</v>
@@ -3137,127 +3135,126 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B10" s="37">
         <v>90</v>
       </c>
-      <c r="C10" s="55"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="37">
         <v>90</v>
       </c>
-      <c r="C11" s="55"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="37">
         <v>21.3</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="37"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="37">
         <v>21.3</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="37"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" s="37">
         <v>11.4</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="37"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="B15" s="37">
         <v>11.4</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="37"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="37">
-        <v>196.7</v>
-      </c>
-      <c r="C16" s="55"/>
+        <v>11.4</v>
+      </c>
+      <c r="C16" s="37"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="B17" s="37">
         <v>196.7</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="37"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="37">
         <v>221.7</v>
       </c>
-      <c r="C18" s="55"/>
+      <c r="C18" s="37"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="55">
-        <v>86.1</v>
-      </c>
-      <c r="C19" s="55"/>
+        <v>82</v>
+      </c>
+      <c r="B19" s="37">
+        <v>221.7</v>
+      </c>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="55">
-        <v>15.7</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B20" s="37">
+        <v>221.7</v>
+      </c>
+      <c r="C20" s="37"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="37">
         <v>86.1</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="37"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B22" s="37">
         <v>15.7</v>
       </c>
-      <c r="C22" s="55"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23" s="37">
         <v>5.6</v>
       </c>
+      <c r="C23" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -5148,7 +5145,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -8787,26 +8784,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4b28a79e-1cc9-4f05-ae5a-5bf0cae1c77c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cd69d340-177e-4eb0-8e96-70c7cad5452b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101003FF296FBE41C624ABD3622FD33D5BF51" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ff01e1e37c5e8daba0a7f1fe184f9630">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cd69d340-177e-4eb0-8e96-70c7cad5452b" xmlns:ns3="4b28a79e-1cc9-4f05-ae5a-5bf0cae1c77c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b6f0a6f876c5548ac891feacdd946ee5" ns2:_="" ns3:_="">
     <xsd:import namespace="cd69d340-177e-4eb0-8e96-70c7cad5452b"/>
@@ -9007,10 +8984,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4b28a79e-1cc9-4f05-ae5a-5bf0cae1c77c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cd69d340-177e-4eb0-8e96-70c7cad5452b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{572F4E6F-930B-42E8-BD9F-C2A4A8DEA9A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E8DE67C-2B3B-4C01-9899-6112807D0EE3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cd69d340-177e-4eb0-8e96-70c7cad5452b"/>
+    <ds:schemaRef ds:uri="4b28a79e-1cc9-4f05-ae5a-5bf0cae1c77c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9027,20 +9035,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E8DE67C-2B3B-4C01-9899-6112807D0EE3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{572F4E6F-930B-42E8-BD9F-C2A4A8DEA9A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cd69d340-177e-4eb0-8e96-70c7cad5452b"/>
-    <ds:schemaRef ds:uri="4b28a79e-1cc9-4f05-ae5a-5bf0cae1c77c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>